--- a/biology/Histoire de la zoologie et de la botanique/Karl_Gegenbaur/Karl_Gegenbaur.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Gegenbaur/Karl_Gegenbaur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl ou Karl Gegenbaur, né le 21 août 1826 à Wurtzbourg et mort le 14 juin 1903 à Heidelberg, est un anatomiste bavarois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entre à l'université de sa ville natale en 1845. Après avoir obtenu son titre de docteur, il voyage en Italie et en Sicile, avant de revenir à Wurtzbourg. En 1855, il enseigne l'anatomie à Iéna, puis à partir de 1858 à Heidelberg où il dirige également l'Institut d'anatomie. Il est élu membre étranger de la Royal Society le 31 janvier 1884. Il se retire de ses fonctions en 1901.
 Son œuvre la plus connue est son Grundzüge der vergleichenden Anatomie, publié à Leipzig en 1874. 
